--- a/Prosjektarbeid/Dokumenter/Timeliste_gruppe9.xlsx
+++ b/Prosjektarbeid/Dokumenter/Timeliste_gruppe9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b274f0dbc59c8fd/Dokumenter/HIOF/H_2024/Software-engineering-testing/Prosjektarbeid/Dokumenter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="8_{587FEAD1-416B-E74C-BA8F-4E7F5D7ECAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75F4E285-275F-FE4F-8729-B237AC9A0EFB}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{587FEAD1-416B-E74C-BA8F-4E7F5D7ECAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D330DF5E-2361-8640-815E-68E7FD810A6A}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="740" windowWidth="29400" windowHeight="16940" xr2:uid="{B42D1501-9A65-7845-B813-A21FB87C8341}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16940" xr2:uid="{B42D1501-9A65-7845-B813-A21FB87C8341}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -587,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCF267B-2CE6-4D4B-B2D3-EE4EE967CA31}">
   <dimension ref="C2:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -709,7 +709,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>14</v>
@@ -787,7 +787,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>17</v>
@@ -838,7 +838,7 @@
       </c>
       <c r="D34" s="8">
         <f>D5+D15+D25</f>
-        <v>67.5</v>
+        <v>69.5</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>21</v>

--- a/Prosjektarbeid/Dokumenter/Timeliste_gruppe9.xlsx
+++ b/Prosjektarbeid/Dokumenter/Timeliste_gruppe9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b274f0dbc59c8fd/Dokumenter/HIOF/H_2024/Software-engineering-testing/Prosjektarbeid/Dokumenter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{587FEAD1-416B-E74C-BA8F-4E7F5D7ECAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D330DF5E-2361-8640-815E-68E7FD810A6A}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="8_{587FEAD1-416B-E74C-BA8F-4E7F5D7ECAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC59A2F4-A7CE-C140-9121-228C9F60E45F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16940" xr2:uid="{B42D1501-9A65-7845-B813-A21FB87C8341}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sprint nr:</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Emil:</t>
   </si>
   <si>
-    <t>Laget og designet; assets, eksempel på varsling, dashbord og introduksjonssider</t>
-  </si>
-  <si>
     <t>Andreas:</t>
   </si>
   <si>
@@ -89,7 +86,7 @@
     <t>28.10.24 - 21.11.24</t>
   </si>
   <si>
-    <t>Front-end (Quasar og vue), Klassediagram, dokumentskriving</t>
+    <t>Back-end ElectricityPrices, utility og testing av disse</t>
   </si>
   <si>
     <t>Totalt antall timer:</t>
@@ -98,19 +95,25 @@
     <t>Hovedansvar:</t>
   </si>
   <si>
-    <t>Back-end (Electricity Prices)</t>
-  </si>
-  <si>
     <t>Front-end (Quasar og Vue)</t>
   </si>
   <si>
+    <t>Back-end (Electricity Prices, Utility)</t>
+  </si>
+  <si>
+    <t>Back-end (GPS)</t>
+  </si>
+  <si>
     <t>Back-end (User)</t>
   </si>
   <si>
     <t>Back-end (Notification)</t>
   </si>
   <si>
-    <t>Back-end (GPS)</t>
+    <t>Laget og designet; assets, eksempel på varsling, dashbord og introduksjonssider, samt alle disse i både dark-mode og light-mode.</t>
+  </si>
+  <si>
+    <t>Front-end (Quasar og vue), klassediagram, dokumentskriving</t>
   </si>
 </sst>
 </file>
@@ -266,6 +269,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -587,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCF267B-2CE6-4D4B-B2D3-EE4EE967CA31}">
   <dimension ref="C2:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,37 +641,37 @@
         <v>15.5</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="51" x14ac:dyDescent="0.2">
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="8">
         <v>7</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
@@ -689,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="11"/>
     </row>
@@ -709,40 +716,40 @@
         <v>6</v>
       </c>
       <c r="D15" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="51" x14ac:dyDescent="0.2">
       <c r="C16" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="8">
         <v>12.5</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
@@ -767,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="11"/>
     </row>
@@ -782,41 +789,45 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" ht="17" x14ac:dyDescent="0.2">
       <c r="C25" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="17" x14ac:dyDescent="0.2">
       <c r="C26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="D26" s="8">
+        <v>58.5</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
@@ -826,10 +837,10 @@
         <v>3</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
@@ -838,19 +849,19 @@
       </c>
       <c r="D34" s="8">
         <f>D5+D15+D25</f>
-        <v>69.5</v>
+        <v>74.5</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" s="8">
         <f>D6+D16+D26</f>
-        <v>19.5</v>
+        <v>78</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>20</v>
@@ -858,19 +869,19 @@
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36" s="8">
         <f>D7+D17+D27</f>
         <v>0</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" s="8">
         <f>D8+D18+D28</f>
@@ -882,7 +893,7 @@
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38" s="8">
         <f>D9+D19+D29</f>

--- a/Prosjektarbeid/Dokumenter/Timeliste_gruppe9.xlsx
+++ b/Prosjektarbeid/Dokumenter/Timeliste_gruppe9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b274f0dbc59c8fd/Dokumenter/HIOF/H_2024/Software-engineering-testing/Prosjektarbeid/Dokumenter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="8_{587FEAD1-416B-E74C-BA8F-4E7F5D7ECAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC59A2F4-A7CE-C140-9121-228C9F60E45F}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="8_{587FEAD1-416B-E74C-BA8F-4E7F5D7ECAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D24D2B34-484E-354A-A639-B131A5D34267}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16940" xr2:uid="{B42D1501-9A65-7845-B813-A21FB87C8341}"/>
   </bookViews>
@@ -269,10 +269,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -594,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCF267B-2CE6-4D4B-B2D3-EE4EE967CA31}">
   <dimension ref="C2:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -794,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>25</v>
@@ -849,7 +845,7 @@
       </c>
       <c r="D34" s="8">
         <f>D5+D15+D25</f>
-        <v>74.5</v>
+        <v>75.5</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>19</v>

--- a/Prosjektarbeid/Dokumenter/Timeliste_gruppe9.xlsx
+++ b/Prosjektarbeid/Dokumenter/Timeliste_gruppe9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b274f0dbc59c8fd/Dokumenter/HIOF/H_2024/Software-engineering-testing/Prosjektarbeid/Dokumenter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="8_{587FEAD1-416B-E74C-BA8F-4E7F5D7ECAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D24D2B34-484E-354A-A639-B131A5D34267}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="8_{587FEAD1-416B-E74C-BA8F-4E7F5D7ECAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0CD88B0-0D37-5645-92FC-9A49000AB139}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16940" xr2:uid="{B42D1501-9A65-7845-B813-A21FB87C8341}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>Sprint nr:</t>
   </si>
@@ -71,9 +71,15 @@
     <t>Sebastian:</t>
   </si>
   <si>
+    <t>Laget kravspesifikasjon.</t>
+  </si>
+  <si>
     <t>Ida:</t>
   </si>
   <si>
+    <t>Skrevet scenario, laget design for dashbord, logo</t>
+  </si>
+  <si>
     <t>29.09.24 - 27.10.24</t>
   </si>
   <si>
@@ -83,12 +89,27 @@
     <t>Back-end (Java), laget klasse getElectricityPrices, funnet API, lagt til dependencies, laget CalculateElectricityPrices, begynt å refaktorere kode</t>
   </si>
   <si>
+    <t>Back-end (Java), laget klassene User, UserRepository, UserService og LoginMenu, laget metoder for registrering, innlogging og lagring av brukerinfo</t>
+  </si>
+  <si>
+    <t>Back-end(Notifikasjoner), satt opp Firebase, opprettet klassene Notification og NotificationSender, dokumentskriving</t>
+  </si>
+  <si>
     <t>28.10.24 - 21.11.24</t>
   </si>
   <si>
+    <t>Front-end (Quasar og vue), klassediagram, dokumentskriving, GitHub administrasjon</t>
+  </si>
+  <si>
     <t>Back-end ElectricityPrices, utility og testing av disse</t>
   </si>
   <si>
+    <t>Back-end (Java), oppdatert klassene med flere funksjoner, og laget tester for disse, ført over kode til riktig branch, dokumentskriving</t>
+  </si>
+  <si>
+    <t>Back-end(notifikasjoner), oppdatert klassene for mer avansert funksjonalitet, opprettet tester for alle klassene, ført kode over til riktig branch, dokumentskriving</t>
+  </si>
+  <si>
     <t>Totalt antall timer:</t>
   </si>
   <si>
@@ -108,12 +129,6 @@
   </si>
   <si>
     <t>Back-end (Notification)</t>
-  </si>
-  <si>
-    <t>Laget og designet; assets, eksempel på varsling, dashbord og introduksjonssider, samt alle disse i både dark-mode og light-mode.</t>
-  </si>
-  <si>
-    <t>Front-end (Quasar og vue), klassediagram, dokumentskriving</t>
   </si>
 </sst>
 </file>
@@ -590,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCF267B-2CE6-4D4B-B2D3-EE4EE967CA31}">
   <dimension ref="C2:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,9 +651,7 @@
       <c r="D5" s="8">
         <v>15.5</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="3:5" ht="51" x14ac:dyDescent="0.2">
       <c r="C6" s="7" t="s">
@@ -658,19 +671,27 @@
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:5" ht="17" x14ac:dyDescent="0.2">
       <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="17" x14ac:dyDescent="0.2">
       <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="D9" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E10" s="11"/>
@@ -692,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E13" s="11"/>
     </row>
@@ -715,7 +736,7 @@
         <v>48</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="51" x14ac:dyDescent="0.2">
@@ -726,7 +747,7 @@
         <v>12.5</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
@@ -736,19 +757,27 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" ht="51" x14ac:dyDescent="0.2">
       <c r="C18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="8">
+        <v>26</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="34" x14ac:dyDescent="0.2">
       <c r="C19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="D19" s="8">
+        <v>8</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E20" s="11"/>
@@ -770,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E23" s="11"/>
     </row>
@@ -785,15 +814,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" ht="34" x14ac:dyDescent="0.2">
       <c r="C25" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="8">
-        <v>12</v>
+        <v>20.5</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="3:5" ht="17" x14ac:dyDescent="0.2">
@@ -804,7 +833,7 @@
         <v>58.5</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
@@ -814,29 +843,35 @@
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:5" ht="34" x14ac:dyDescent="0.2">
       <c r="C28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E28" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="51" x14ac:dyDescent="0.2">
       <c r="C29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="D29" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
@@ -845,10 +880,10 @@
       </c>
       <c r="D34" s="8">
         <f>D5+D15+D25</f>
-        <v>75.5</v>
+        <v>84</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
@@ -860,7 +895,7 @@
         <v>78</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
@@ -872,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
@@ -881,22 +916,22 @@
       </c>
       <c r="D37" s="8">
         <f>D8+D18+D28</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="8">
         <f>D9+D19+D29</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Prosjektarbeid/Dokumenter/Timeliste_gruppe9.xlsx
+++ b/Prosjektarbeid/Dokumenter/Timeliste_gruppe9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b274f0dbc59c8fd/Dokumenter/HIOF/H_2024/Software-engineering-testing/Prosjektarbeid/Dokumenter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="217" documentId="8_{587FEAD1-416B-E74C-BA8F-4E7F5D7ECAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0CD88B0-0D37-5645-92FC-9A49000AB139}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="8_{587FEAD1-416B-E74C-BA8F-4E7F5D7ECAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B806CB32-7750-4CD1-AD71-9D6E5253C5AA}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16940" xr2:uid="{B42D1501-9A65-7845-B813-A21FB87C8341}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>Sprint nr:</t>
   </si>
@@ -59,15 +59,21 @@
     <t>Emil:</t>
   </si>
   <si>
+    <t>Designet i Figma: Innlogginssider, introduksjonssider, dashbord, assets/elementer, dark-mode til noen sider, begynte smått med Front-end.</t>
+  </si>
+  <si>
     <t>Andreas:</t>
   </si>
   <si>
-    <t>Laget og designet ladehistorikk-, vilkårside, strømprisside, min side, innstillinger, samt darkmode til disse og engelsk versjon i figma, samt litt funksjonalitet, laget persona om Juiee Strøm</t>
+    <t>Laget og designet ladehistorikk-, vilkårside, strømprisside, min side, innstillinger, samt darkmode til disse og engelsk versjon i figma, samt litt funksjonalitet, laget persona om Juiie Strøm</t>
   </si>
   <si>
     <t>Khalid:</t>
   </si>
   <si>
+    <t xml:space="preserve">Laget design for "darkmode" på innlogging og registrering siden i figma. Laget design for darkmode for alle "Main" sidene. Laget persona om Markus Johansen </t>
+  </si>
+  <si>
     <t>Sebastian:</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
     <t>Back-end (Java), laget klasse getElectricityPrices, funnet API, lagt til dependencies, laget CalculateElectricityPrices, begynt å refaktorere kode</t>
   </si>
   <si>
+    <t>Laget DB tabeller (SQL), forbedre på tidligere dokumenter etter tilbakemeldinger</t>
+  </si>
+  <si>
     <t>Back-end (Java), laget klassene User, UserRepository, UserService og LoginMenu, laget metoder for registrering, innlogging og lagring av brukerinfo</t>
   </si>
   <si>
@@ -101,13 +110,16 @@
     <t>Front-end (Quasar og vue), klassediagram, dokumentskriving, GitHub administrasjon</t>
   </si>
   <si>
-    <t>Back-end ElectricityPrices, utility og testing av disse</t>
+    <t>Back-end ElectricityPrices, utility og testing av disse, dokumentskriving, back-end filstrukturering</t>
+  </si>
+  <si>
+    <t>Back-end GPS, testing, dokumentskriving, endre på mappe og filstruktur</t>
   </si>
   <si>
     <t>Back-end (Java), oppdatert klassene med flere funksjoner, og laget tester for disse, ført over kode til riktig branch, dokumentskriving</t>
   </si>
   <si>
-    <t>Back-end(notifikasjoner), oppdatert klassene for mer avansert funksjonalitet, opprettet tester for alle klassene, ført kode over til riktig branch, dokumentskriving</t>
+    <t>Back-end(notifikasjoner), oppdatert klassene for mer avansert funksjonalitet, opprettet tester for alle klassene, refaktorisering, dokumentskriving, merget branch</t>
   </si>
   <si>
     <t>Totalt antall timer:</t>
@@ -135,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -267,11 +279,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Beregning" xfId="3" builtinId="22"/>
-    <cellStyle name="Inndata" xfId="1" builtinId="20"/>
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Utdata" xfId="2" builtinId="21"/>
-    <cellStyle name="Varseltekst" xfId="4" builtinId="11"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
+    <cellStyle name="Warning Text" xfId="4" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -605,11 +617,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCF267B-2CE6-4D4B-B2D3-EE4EE967CA31}">
   <dimension ref="C2:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
@@ -617,7 +629,7 @@
     <col min="6" max="6" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:5">
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
@@ -625,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:5">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -633,7 +645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:5" ht="17.100000000000001">
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
@@ -644,62 +656,68 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:5" ht="33" customHeight="1">
       <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="8">
         <v>15.5</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="3:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="E5" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="51">
       <c r="C6" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="8">
         <v>7</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="51">
       <c r="C7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="3:5" ht="17" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="17.100000000000001">
       <c r="C8" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" s="8">
         <v>3</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" ht="17" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="17.100000000000001">
       <c r="C9" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" s="8">
         <v>3.5</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:5">
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:5">
       <c r="C12" s="5" t="s">
         <v>0</v>
       </c>
@@ -708,16 +726,16 @@
       </c>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:5">
       <c r="C13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="3:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:5" ht="17.100000000000001">
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
@@ -728,7 +746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:5" ht="33.950000000000003">
       <c r="C15" s="7" t="s">
         <v>6</v>
       </c>
@@ -736,56 +754,60 @@
         <v>48</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" ht="51" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="51">
       <c r="C16" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="8">
         <v>12.5</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="33.950000000000003">
       <c r="C17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="3:5" ht="51" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8">
+        <v>6</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="51">
       <c r="C18" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D18" s="8">
         <v>26</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="34" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="33.950000000000003">
       <c r="C19" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5">
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5">
       <c r="C22" s="5" t="s">
         <v>0</v>
       </c>
@@ -794,16 +816,16 @@
       </c>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5">
       <c r="C23" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="3:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" ht="17.100000000000001">
       <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
@@ -814,124 +836,130 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" ht="33.950000000000003">
       <c r="C25" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="8">
-        <v>20.5</v>
+        <v>26.5</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" ht="17" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="33.950000000000003">
       <c r="C26" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" s="8">
-        <v>58.5</v>
+        <v>78</v>
       </c>
       <c r="E26" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="17.100000000000001">
+      <c r="C27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="8">
+        <v>42.5</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="33.950000000000003">
+      <c r="C28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="8">
+        <v>47</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="51">
+      <c r="C29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="8">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="3:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="C28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="C29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="8">
-        <v>10.5</v>
-      </c>
       <c r="E29" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
       <c r="C34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="8">
         <f>D5+D15+D25</f>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
       <c r="C35" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D35" s="8">
         <f>D6+D16+D26</f>
-        <v>78</v>
+        <v>97.5</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
       <c r="C36" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" s="8">
         <f>D7+D17+D27</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
       <c r="C37" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D37" s="8">
         <f>D8+D18+D28</f>
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
       <c r="C38" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D38" s="8">
         <f>D9+D19+D29</f>
-        <v>22</v>
+        <v>34.5</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
